--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/10/seed4/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.3033</v>
+        <v>-13.0064</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.91170000000001</v>
+        <v>-21.81720000000002</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.2609</v>
+        <v>-11.2243</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.5588</v>
+        <v>-8.693199999999999</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.26650000000002</v>
+        <v>-22.15700000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.75979999999999</v>
+        <v>-20.97009999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.9479</v>
+        <v>-12.82880000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.853</v>
+        <v>-21.73589999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.6206</v>
+        <v>-12.7668</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.46820000000001</v>
+        <v>-11.3289</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.20119999999999</v>
+        <v>-14.65009999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,10 +1080,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.3277</v>
+        <v>-13.5181</v>
       </c>
       <c r="D38" t="n">
-        <v>-9.010199999999992</v>
+        <v>-8.820999999999991</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.3143</v>
+        <v>-7.601899999999998</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.9245</v>
+        <v>-11.6603</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.582899999999998</v>
+        <v>-7.466599999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.05220000000001</v>
+        <v>-13.8024</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.9962</v>
+        <v>-8.0692</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.841799999999996</v>
+        <v>-7.764400000000002</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.8815</v>
+        <v>-21.92280000000001</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.6401</v>
+        <v>-11.6772</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.8315</v>
+        <v>-11.7314</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.738699999999995</v>
+        <v>-7.783699999999997</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.8039</v>
+        <v>-19.86619999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.1212</v>
+        <v>-22.16520000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.848</v>
+        <v>-13.98769999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.754100000000001</v>
+        <v>-7.806499999999996</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.388</v>
+        <v>-13.5198</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
